--- a/Calculator.WPF/testExportFile.xlsx
+++ b/Calculator.WPF/testExportFile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Original Value</t>
   </si>
@@ -26,16 +26,22 @@
     <t>New Unit</t>
   </si>
   <si>
-    <t>meters</t>
+    <t>centimeters</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>km</t>
   </si>
   <si>
     <t>ft</t>
   </si>
   <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -80,8 +86,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportUnits" displayName="ExportUnits" ref="A1:D3" headerRowCount="1">
-  <autoFilter ref="A1:D3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportUnits" displayName="ExportUnits" ref="A1:D4" headerRowCount="1">
+  <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Original Value"/>
     <tableColumn id="2" name="Original Unit"/>
@@ -94,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -122,7 +128,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>49.212</v>
+        <v>0.15</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
@@ -130,16 +136,30 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>25</v>
+        <v>0.05</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0">
-        <v>0.635</v>
+        <v>0.08046720000000002</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>78954</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0">
+        <v>947448</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
